--- a/backend/pdf_processing/extracted/tables/fileoutpart4.xlsx
+++ b/backend/pdf_processing/extracted/tables/fileoutpart4.xlsx
@@ -14,66 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>PIC _x000D_</t>
-  </si>
-  <si>
-    <t>Petr Borodkin _x000D_</t>
-  </si>
-  <si>
-    <t>Souls on board _x000D_</t>
-  </si>
-  <si>
-    <t>3 _x000D_</t>
-  </si>
-  <si>
-    <t>Tail _x000D_</t>
-  </si>
-  <si>
-    <t>FHIJI (C172) _x000D_</t>
-  </si>
-  <si>
-    <t>Profile _x000D_</t>
-  </si>
-  <si>
-    <t>Full Throttle - 2400RPM Lean Mixture @ 3500' - Min RPM 500 fpm _x000D_</t>
-  </si>
-  <si>
-    <t>Fuel Flow _x000D_</t>
-  </si>
-  <si>
-    <t>9.0 g/hr _x000D_</t>
-  </si>
-  <si>
-    <t>Distance _x000D_</t>
-  </si>
-  <si>
-    <t>104NM _x000D_</t>
-  </si>
-  <si>
-    <t>ETD _x000D_</t>
-  </si>
-  <si>
-    <t>0735Z _x000D_</t>
-  </si>
-  <si>
-    <t>ETE _x000D_</t>
-  </si>
-  <si>
-    <t>1h02m _x000D_</t>
-  </si>
-  <si>
-    <t>ETA _x000D_</t>
-  </si>
-  <si>
-    <t>0837Z _x000D_</t>
-  </si>
-  <si>
-    <t>Route _x000D_</t>
-  </si>
-  <si>
-    <t>MQ604 MAARR/N0110A01 7 MLLP MYME MYPS/N0109A035 4344N00449E MEBC TWRD TWCZ MECA/N0110A020 MTNF/N0110A015 _x000D_</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>FLIGHT INFORMATION REGION _x000D_</t>
+  </si>
+  <si>
+    <t>EET _x000D_</t>
+  </si>
+  <si>
+    <t>ENTRY _x000D_</t>
+  </si>
+  <si>
+    <t>EXIT _x000D_</t>
+  </si>
+  <si>
+    <t>DISTANCE _x000D_</t>
+  </si>
+  <si>
+    <t>LFFF - PARIS _x000D_</t>
+  </si>
+  <si>
+    <t>-_x000D_</t>
+  </si>
+  <si>
+    <t>1300Z _x000D_</t>
+  </si>
+  <si>
+    <t>1350Z _x000D_</t>
+  </si>
+  <si>
+    <t>85NM _x000D_</t>
   </si>
 </sst>
 </file>
@@ -126,7 +96,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -135,10 +105,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,94 +401,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="14" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="20" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:5" ht="19" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="56" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="20" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="113" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
